--- a/data/pca/factorExposure/factorExposure_2012-01-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-01-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01476920701172975</v>
+        <v>-0.01406237543585828</v>
       </c>
       <c r="C2">
-        <v>-0.03112117124851388</v>
+        <v>0.02519691249086249</v>
       </c>
       <c r="D2">
-        <v>-0.01648664858419209</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.02045225866532665</v>
+      </c>
+      <c r="E2">
+        <v>0.01062317972586265</v>
+      </c>
+      <c r="F2">
+        <v>-0.02714398846879753</v>
+      </c>
+      <c r="G2">
+        <v>0.001856507387864149</v>
+      </c>
+      <c r="H2">
+        <v>-0.03305083596045243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07471107387273718</v>
+        <v>-0.08701892645989318</v>
       </c>
       <c r="C4">
-        <v>-0.05058567353380075</v>
+        <v>0.03428285135970306</v>
       </c>
       <c r="D4">
-        <v>-0.08408058487738423</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.0714510689005209</v>
+      </c>
+      <c r="E4">
+        <v>0.003600996831048745</v>
+      </c>
+      <c r="F4">
+        <v>-0.04127313030045055</v>
+      </c>
+      <c r="G4">
+        <v>0.01053545488925513</v>
+      </c>
+      <c r="H4">
+        <v>0.04081991352566886</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.112506734970826</v>
+        <v>-0.122857990959494</v>
       </c>
       <c r="C6">
-        <v>-0.04832767188825776</v>
+        <v>0.032564158762448</v>
       </c>
       <c r="D6">
-        <v>-0.00632407095334424</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01260885050265418</v>
+      </c>
+      <c r="E6">
+        <v>-0.02980963873680706</v>
+      </c>
+      <c r="F6">
+        <v>-0.05066992887442652</v>
+      </c>
+      <c r="G6">
+        <v>0.03620468925144187</v>
+      </c>
+      <c r="H6">
+        <v>-0.1199749911857122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.05423898062361075</v>
+        <v>-0.06396122810839684</v>
       </c>
       <c r="C7">
-        <v>-0.0257020558895309</v>
+        <v>0.01271535988413235</v>
       </c>
       <c r="D7">
-        <v>-0.03691077324795626</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05059912841302815</v>
+      </c>
+      <c r="E7">
+        <v>0.03036638150832187</v>
+      </c>
+      <c r="F7">
+        <v>-0.04615755861704593</v>
+      </c>
+      <c r="G7">
+        <v>-0.03615639966379008</v>
+      </c>
+      <c r="H7">
+        <v>0.01275220978010558</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.0399604372075214</v>
+        <v>-0.04295295233960515</v>
       </c>
       <c r="C8">
-        <v>-0.0139967643792416</v>
+        <v>0.009832685655684825</v>
       </c>
       <c r="D8">
-        <v>-0.05946357061032308</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02515399993767849</v>
+      </c>
+      <c r="E8">
+        <v>0.01218802465602662</v>
+      </c>
+      <c r="F8">
+        <v>-0.06381587553492275</v>
+      </c>
+      <c r="G8">
+        <v>0.04847361899254835</v>
+      </c>
+      <c r="H8">
+        <v>-0.01144955896933519</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06931444696325237</v>
+        <v>-0.07869028715716657</v>
       </c>
       <c r="C9">
-        <v>-0.03785982839279119</v>
+        <v>0.02229063362512186</v>
       </c>
       <c r="D9">
-        <v>-0.07594175521628944</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06565648390210273</v>
+      </c>
+      <c r="E9">
+        <v>0.02268229087862574</v>
+      </c>
+      <c r="F9">
+        <v>-0.0329532644015497</v>
+      </c>
+      <c r="G9">
+        <v>0.01928797778242669</v>
+      </c>
+      <c r="H9">
+        <v>0.04735553093210611</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03181646206073958</v>
+        <v>-0.04496733127701925</v>
       </c>
       <c r="C10">
-        <v>-0.02983866455670396</v>
+        <v>0.06002524455309766</v>
       </c>
       <c r="D10">
-        <v>0.174851565775572</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1743702516358117</v>
+      </c>
+      <c r="E10">
+        <v>0.04251097905614144</v>
+      </c>
+      <c r="F10">
+        <v>-0.05605875661933736</v>
+      </c>
+      <c r="G10">
+        <v>-0.03349883838540299</v>
+      </c>
+      <c r="H10">
+        <v>-0.0507218730605517</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.07286532050831149</v>
+        <v>-0.07686040605099916</v>
       </c>
       <c r="C11">
-        <v>-0.04026071646148818</v>
+        <v>0.01947653744664074</v>
       </c>
       <c r="D11">
-        <v>-0.05816523909287884</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.0660329991586024</v>
+      </c>
+      <c r="E11">
+        <v>-0.008496113533548339</v>
+      </c>
+      <c r="F11">
+        <v>-0.03515351169610732</v>
+      </c>
+      <c r="G11">
+        <v>0.02742521158625706</v>
+      </c>
+      <c r="H11">
+        <v>0.07545137543202414</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.06102465020469137</v>
+        <v>-0.06954123054787276</v>
       </c>
       <c r="C12">
-        <v>-0.049736837198193</v>
+        <v>0.03253365495612252</v>
       </c>
       <c r="D12">
-        <v>-0.0466633455348117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05010753893760098</v>
+      </c>
+      <c r="E12">
+        <v>0.01046209384811599</v>
+      </c>
+      <c r="F12">
+        <v>-0.0242769309875866</v>
+      </c>
+      <c r="G12">
+        <v>0.01392796585741702</v>
+      </c>
+      <c r="H12">
+        <v>0.03315660734065298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.0671667794735592</v>
+        <v>-0.06692717834967551</v>
       </c>
       <c r="C13">
-        <v>-0.03296131524769835</v>
+        <v>0.01669055722927807</v>
       </c>
       <c r="D13">
-        <v>-0.04585512953644769</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.03993047499968663</v>
+      </c>
+      <c r="E13">
+        <v>0.01232998788278282</v>
+      </c>
+      <c r="F13">
+        <v>-0.02478539034324654</v>
+      </c>
+      <c r="G13">
+        <v>0.002062295752285928</v>
+      </c>
+      <c r="H13">
+        <v>0.0538750330608287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03344495614773253</v>
+        <v>-0.03913487182590331</v>
       </c>
       <c r="C14">
-        <v>-0.03110434379310861</v>
+        <v>0.02552233234122315</v>
       </c>
       <c r="D14">
-        <v>0.004901686785658793</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01536575777257595</v>
+      </c>
+      <c r="E14">
+        <v>0.02743415243746575</v>
+      </c>
+      <c r="F14">
+        <v>-0.01918849288182554</v>
+      </c>
+      <c r="G14">
+        <v>0.02249066823893444</v>
+      </c>
+      <c r="H14">
+        <v>0.05789561789216262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.0406800633421564</v>
+        <v>-0.04010357947749678</v>
       </c>
       <c r="C15">
-        <v>-0.008029036550230115</v>
+        <v>0.001282167799353953</v>
       </c>
       <c r="D15">
-        <v>-0.02025840361459503</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.008159041115371819</v>
+      </c>
+      <c r="E15">
+        <v>0.03479966750933253</v>
+      </c>
+      <c r="F15">
+        <v>-0.00443897533702848</v>
+      </c>
+      <c r="G15">
+        <v>0.03068652559439192</v>
+      </c>
+      <c r="H15">
+        <v>0.02437102132915997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.06104020644922379</v>
+        <v>-0.07172358270455799</v>
       </c>
       <c r="C16">
-        <v>-0.03847260880186344</v>
+        <v>0.0230372182323694</v>
       </c>
       <c r="D16">
-        <v>-0.05095696157475649</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06235118521131875</v>
+      </c>
+      <c r="E16">
+        <v>0.002907217952148798</v>
+      </c>
+      <c r="F16">
+        <v>-0.03196488685856832</v>
+      </c>
+      <c r="G16">
+        <v>0.01307756671824413</v>
+      </c>
+      <c r="H16">
+        <v>0.04932180947449898</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06386418522311985</v>
+        <v>-0.06227249934310651</v>
       </c>
       <c r="C20">
-        <v>-0.02345659600868413</v>
+        <v>0.005994962182558554</v>
       </c>
       <c r="D20">
-        <v>-0.04771402456224774</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.0413550079542809</v>
+      </c>
+      <c r="E20">
+        <v>0.009820858904205965</v>
+      </c>
+      <c r="F20">
+        <v>-0.03044037682706544</v>
+      </c>
+      <c r="G20">
+        <v>0.02197486805629683</v>
+      </c>
+      <c r="H20">
+        <v>0.0528435183132588</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02620968988476043</v>
+        <v>-0.02658948168370414</v>
       </c>
       <c r="C21">
-        <v>0.002312500667899872</v>
+        <v>-0.009804473348696238</v>
       </c>
       <c r="D21">
-        <v>-0.02230024333242246</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02253322425196836</v>
+      </c>
+      <c r="E21">
+        <v>0.0423488167289456</v>
+      </c>
+      <c r="F21">
+        <v>0.00545382718660364</v>
+      </c>
+      <c r="G21">
+        <v>0.00555236754925837</v>
+      </c>
+      <c r="H21">
+        <v>-0.0476252626882662</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07772981088614817</v>
+        <v>-0.06971557207899726</v>
       </c>
       <c r="C22">
-        <v>-0.0587736449866797</v>
+        <v>0.03235191810758885</v>
       </c>
       <c r="D22">
-        <v>-0.1418727763479474</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.0994191276226159</v>
+      </c>
+      <c r="E22">
+        <v>0.6138010368174855</v>
+      </c>
+      <c r="F22">
+        <v>0.06623294515022782</v>
+      </c>
+      <c r="G22">
+        <v>-0.1324867800549822</v>
+      </c>
+      <c r="H22">
+        <v>-0.1437513977152059</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.07869261833361441</v>
+        <v>-0.07061046020863124</v>
       </c>
       <c r="C23">
-        <v>-0.05745336445664558</v>
+        <v>0.03102989020515032</v>
       </c>
       <c r="D23">
-        <v>-0.1431600872285851</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.100449179320204</v>
+      </c>
+      <c r="E23">
+        <v>0.6158113877530347</v>
+      </c>
+      <c r="F23">
+        <v>0.06541359200075038</v>
+      </c>
+      <c r="G23">
+        <v>-0.1276288757403493</v>
+      </c>
+      <c r="H23">
+        <v>-0.1388218846909707</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07584066219834155</v>
+        <v>-0.08062669412164197</v>
       </c>
       <c r="C24">
-        <v>-0.04923938266152969</v>
+        <v>0.02799250961363796</v>
       </c>
       <c r="D24">
-        <v>-0.06309723941523268</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06449966741900263</v>
+      </c>
+      <c r="E24">
+        <v>0.009064076157223114</v>
+      </c>
+      <c r="F24">
+        <v>-0.04065050833579884</v>
+      </c>
+      <c r="G24">
+        <v>0.02416786022602846</v>
+      </c>
+      <c r="H24">
+        <v>0.03976304284388373</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07495279233760754</v>
+        <v>-0.07942673812899347</v>
       </c>
       <c r="C25">
-        <v>-0.05191364266862545</v>
+        <v>0.03237727044326837</v>
       </c>
       <c r="D25">
-        <v>-0.06562588404023326</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05293041763505603</v>
+      </c>
+      <c r="E25">
+        <v>0.01594605087299071</v>
+      </c>
+      <c r="F25">
+        <v>-0.03568324414277507</v>
+      </c>
+      <c r="G25">
+        <v>0.03639502422897484</v>
+      </c>
+      <c r="H25">
+        <v>0.04546759723443695</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04499067257126937</v>
+        <v>-0.0448301346408259</v>
       </c>
       <c r="C26">
-        <v>-0.00847804457522585</v>
+        <v>-0.001550537122630224</v>
       </c>
       <c r="D26">
-        <v>-0.01691521061838214</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02180998922703834</v>
+      </c>
+      <c r="E26">
+        <v>0.04025223645772582</v>
+      </c>
+      <c r="F26">
+        <v>-0.0400070136123547</v>
+      </c>
+      <c r="G26">
+        <v>0.008031769678084165</v>
+      </c>
+      <c r="H26">
+        <v>0.05112308634807359</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05401477622423148</v>
+        <v>-0.07171270650002043</v>
       </c>
       <c r="C28">
-        <v>-0.0734883251132387</v>
+        <v>0.1149073990759967</v>
       </c>
       <c r="D28">
-        <v>0.2997486270970134</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2953274936622843</v>
+      </c>
+      <c r="E28">
+        <v>0.03374632690908907</v>
+      </c>
+      <c r="F28">
+        <v>-0.06152106959523394</v>
+      </c>
+      <c r="G28">
+        <v>0.02432220337322822</v>
+      </c>
+      <c r="H28">
+        <v>-0.04995906333344347</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.0449409974722413</v>
+        <v>-0.04698000327871298</v>
       </c>
       <c r="C29">
-        <v>-0.02831876267034808</v>
+        <v>0.02125302255545156</v>
       </c>
       <c r="D29">
-        <v>-0.008651861432502591</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01371268934287557</v>
+      </c>
+      <c r="E29">
+        <v>0.05874311069568886</v>
+      </c>
+      <c r="F29">
+        <v>-0.02092475053669601</v>
+      </c>
+      <c r="G29">
+        <v>0.01505539464546424</v>
+      </c>
+      <c r="H29">
+        <v>0.0771688540856751</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1276251981017542</v>
+        <v>-0.1269027939270175</v>
       </c>
       <c r="C30">
-        <v>-0.08531615132801343</v>
+        <v>0.05299735129404775</v>
       </c>
       <c r="D30">
-        <v>-0.1030492714764965</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08165594054233963</v>
+      </c>
+      <c r="E30">
+        <v>0.06870386152695225</v>
+      </c>
+      <c r="F30">
+        <v>-0.02277120457639488</v>
+      </c>
+      <c r="G30">
+        <v>0.06514599675872362</v>
+      </c>
+      <c r="H30">
+        <v>-0.03178816032951307</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04660845280214537</v>
+        <v>-0.04868257632671034</v>
       </c>
       <c r="C31">
-        <v>-0.02167931434112176</v>
+        <v>0.009933431550790789</v>
       </c>
       <c r="D31">
-        <v>-0.02580865476806975</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0341833768404666</v>
+      </c>
+      <c r="E31">
+        <v>0.02304665712279044</v>
+      </c>
+      <c r="F31">
+        <v>-0.008324781837491472</v>
+      </c>
+      <c r="G31">
+        <v>-0.009699543603872733</v>
+      </c>
+      <c r="H31">
+        <v>0.06816365361382758</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03822548561178163</v>
+        <v>-0.04011161772163934</v>
       </c>
       <c r="C32">
-        <v>-0.02359519699505428</v>
+        <v>0.02099792812260718</v>
       </c>
       <c r="D32">
-        <v>-0.02191117994558263</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.009704915806708641</v>
+      </c>
+      <c r="E32">
+        <v>0.05556782625894252</v>
+      </c>
+      <c r="F32">
+        <v>0.004186593466722727</v>
+      </c>
+      <c r="G32">
+        <v>0.03750690544345636</v>
+      </c>
+      <c r="H32">
+        <v>0.02889710080214421</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08536637104380577</v>
+        <v>-0.09398344916838784</v>
       </c>
       <c r="C33">
-        <v>-0.03777463494020185</v>
+        <v>0.01903846899653466</v>
       </c>
       <c r="D33">
-        <v>-0.05673073609476585</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.04927640107541006</v>
+      </c>
+      <c r="E33">
+        <v>0.01165145944918479</v>
+      </c>
+      <c r="F33">
+        <v>-0.01121288695280021</v>
+      </c>
+      <c r="G33">
+        <v>0.008338375355251849</v>
+      </c>
+      <c r="H33">
+        <v>0.06568605633695615</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0594025909057951</v>
+        <v>-0.06423865288175513</v>
       </c>
       <c r="C34">
-        <v>-0.02336019323015148</v>
+        <v>0.007300271977623883</v>
       </c>
       <c r="D34">
-        <v>-0.05371039985596181</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.04972629258326733</v>
+      </c>
+      <c r="E34">
+        <v>0.005245943811366144</v>
+      </c>
+      <c r="F34">
+        <v>-0.0246993801758906</v>
+      </c>
+      <c r="G34">
+        <v>0.01652841478791928</v>
+      </c>
+      <c r="H34">
+        <v>0.05381155255772864</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03626648295674815</v>
+        <v>-0.03810032232299977</v>
       </c>
       <c r="C35">
-        <v>-0.007228088602862002</v>
+        <v>0.001012258401326238</v>
       </c>
       <c r="D35">
-        <v>-0.01784585144433141</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01464469923739849</v>
+      </c>
+      <c r="E35">
+        <v>0.02032050005763249</v>
+      </c>
+      <c r="F35">
+        <v>0.01564640965515508</v>
+      </c>
+      <c r="G35">
+        <v>-0.003751314516993916</v>
+      </c>
+      <c r="H35">
+        <v>0.02367403809700771</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.0243093690212665</v>
+        <v>-0.02898355346127955</v>
       </c>
       <c r="C36">
-        <v>-0.01752163353899136</v>
+        <v>0.01324946663380861</v>
       </c>
       <c r="D36">
-        <v>-0.02164694525387104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01774124210476072</v>
+      </c>
+      <c r="E36">
+        <v>0.02636024491091845</v>
+      </c>
+      <c r="F36">
+        <v>-0.02870682934851361</v>
+      </c>
+      <c r="G36">
+        <v>0.0008870344484094162</v>
+      </c>
+      <c r="H36">
+        <v>0.04526739647505609</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.04217998769295057</v>
+        <v>-0.0444045316055489</v>
       </c>
       <c r="C38">
-        <v>-0.001874594600288894</v>
+        <v>-0.005272602945880673</v>
       </c>
       <c r="D38">
-        <v>-0.0216789495057495</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02176850841697388</v>
+      </c>
+      <c r="E38">
+        <v>0.05257435236025311</v>
+      </c>
+      <c r="F38">
+        <v>0.001101008907463281</v>
+      </c>
+      <c r="G38">
+        <v>0.006974591263075698</v>
+      </c>
+      <c r="H38">
+        <v>0.02202430849163784</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09216651899380551</v>
+        <v>-0.09996026119861928</v>
       </c>
       <c r="C39">
-        <v>-0.06717711366892481</v>
+        <v>0.04409386377484968</v>
       </c>
       <c r="D39">
-        <v>-0.06044783826957307</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.07045630050178775</v>
+      </c>
+      <c r="E39">
+        <v>0.0008376425828641767</v>
+      </c>
+      <c r="F39">
+        <v>-0.001179891413156879</v>
+      </c>
+      <c r="G39">
+        <v>0.04937661288314144</v>
+      </c>
+      <c r="H39">
+        <v>0.03976255647545341</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07982807701353274</v>
+        <v>-0.06298506166866095</v>
       </c>
       <c r="C40">
-        <v>-0.03353742259304165</v>
+        <v>0.004427947000357984</v>
       </c>
       <c r="D40">
-        <v>-0.01066959688154709</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.0330251873680356</v>
+      </c>
+      <c r="E40">
+        <v>0.04664894846379687</v>
+      </c>
+      <c r="F40">
+        <v>0.04405437395293638</v>
+      </c>
+      <c r="G40">
+        <v>0.02293732762389216</v>
+      </c>
+      <c r="H40">
+        <v>-0.07512853061396421</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.0440951305038081</v>
+        <v>-0.04560380142582263</v>
       </c>
       <c r="C41">
-        <v>-0.004833159816317731</v>
+        <v>-0.005829557644363724</v>
       </c>
       <c r="D41">
-        <v>-0.03754524523515939</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03252972396416837</v>
+      </c>
+      <c r="E41">
+        <v>0.003102830341894989</v>
+      </c>
+      <c r="F41">
+        <v>0.01366902751265954</v>
+      </c>
+      <c r="G41">
+        <v>0.01405662774027971</v>
+      </c>
+      <c r="H41">
+        <v>0.0238162164590781</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.05299319664191683</v>
+        <v>-0.05991205654254565</v>
       </c>
       <c r="C43">
-        <v>-0.02440424143645162</v>
+        <v>0.01429664117832667</v>
       </c>
       <c r="D43">
-        <v>-0.01738530402172369</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02928445528956954</v>
+      </c>
+      <c r="E43">
+        <v>0.02204884054439159</v>
+      </c>
+      <c r="F43">
+        <v>-0.01734602394082931</v>
+      </c>
+      <c r="G43">
+        <v>-0.00994370631145189</v>
+      </c>
+      <c r="H43">
+        <v>0.06297978123070611</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09641441004272665</v>
+        <v>-0.09378367180546275</v>
       </c>
       <c r="C44">
-        <v>-0.08134759181305368</v>
+        <v>0.05180636318928519</v>
       </c>
       <c r="D44">
-        <v>-0.07752029798332591</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.07184745066474081</v>
+      </c>
+      <c r="E44">
+        <v>0.05624852358658522</v>
+      </c>
+      <c r="F44">
+        <v>-0.09303377642268462</v>
+      </c>
+      <c r="G44">
+        <v>0.04104532952748975</v>
+      </c>
+      <c r="H44">
+        <v>0.08354383198665888</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02747148853603478</v>
+        <v>-0.03510060089471301</v>
       </c>
       <c r="C46">
-        <v>-0.01411936026283598</v>
+        <v>0.008425075119500625</v>
       </c>
       <c r="D46">
-        <v>-0.03275288508760557</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03693114226994616</v>
+      </c>
+      <c r="E46">
+        <v>0.03419272742234693</v>
+      </c>
+      <c r="F46">
+        <v>-0.01598532869075966</v>
+      </c>
+      <c r="G46">
+        <v>0.005562438169553087</v>
+      </c>
+      <c r="H46">
+        <v>0.02042597682294192</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.03501461250630479</v>
+        <v>-0.04130359020655906</v>
       </c>
       <c r="C47">
-        <v>-0.02285541105006649</v>
+        <v>0.0181777325289365</v>
       </c>
       <c r="D47">
-        <v>-0.001260802977355657</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.007119330764377246</v>
+      </c>
+      <c r="E47">
+        <v>0.04339160876950261</v>
+      </c>
+      <c r="F47">
+        <v>0.008178232681970217</v>
+      </c>
+      <c r="G47">
+        <v>-0.02684614441867501</v>
+      </c>
+      <c r="H47">
+        <v>0.02712855410960279</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03534416725008632</v>
+        <v>-0.03874051429973657</v>
       </c>
       <c r="C48">
-        <v>-0.01800893821938883</v>
+        <v>0.01004775442409736</v>
       </c>
       <c r="D48">
-        <v>-0.03375268842565142</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.02152158943903654</v>
+      </c>
+      <c r="E48">
+        <v>0.03768543391563722</v>
+      </c>
+      <c r="F48">
+        <v>-0.0131346563816618</v>
+      </c>
+      <c r="G48">
+        <v>0.02017925946212793</v>
+      </c>
+      <c r="H48">
+        <v>0.02835234119175572</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.16482734178642</v>
+        <v>-0.1977825144258991</v>
       </c>
       <c r="C49">
-        <v>-0.04477383577931596</v>
+        <v>0.02842609944027036</v>
       </c>
       <c r="D49">
-        <v>-0.00794782720193701</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.02741651940844673</v>
+      </c>
+      <c r="E49">
+        <v>-0.1654197936528535</v>
+      </c>
+      <c r="F49">
+        <v>-0.02997814846820018</v>
+      </c>
+      <c r="G49">
+        <v>-0.1376013567939477</v>
+      </c>
+      <c r="H49">
+        <v>-0.2612934475453357</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.04164964494341475</v>
+        <v>-0.04512797645391416</v>
       </c>
       <c r="C50">
-        <v>-0.01936555875624046</v>
+        <v>0.009396880902664953</v>
       </c>
       <c r="D50">
-        <v>-0.04582587780483578</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.04025685867470318</v>
+      </c>
+      <c r="E50">
+        <v>0.03412508861020706</v>
+      </c>
+      <c r="F50">
+        <v>-0.0103168940723564</v>
+      </c>
+      <c r="G50">
+        <v>-0.001127025368033854</v>
+      </c>
+      <c r="H50">
+        <v>0.07646829267032287</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.0294236772493004</v>
+        <v>-0.03433706812527564</v>
       </c>
       <c r="C51">
-        <v>-0.009830138040577564</v>
+        <v>0.00581700801254729</v>
       </c>
       <c r="D51">
-        <v>-0.001822688472628062</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.002014549794360488</v>
+      </c>
+      <c r="E51">
+        <v>0.007211433243118536</v>
+      </c>
+      <c r="F51">
+        <v>-0.0104428153719078</v>
+      </c>
+      <c r="G51">
+        <v>-0.01435363263008346</v>
+      </c>
+      <c r="H51">
+        <v>-0.01838042568752936</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1573692893412802</v>
+        <v>-0.1612640123645745</v>
       </c>
       <c r="C53">
-        <v>-0.06966303469670568</v>
+        <v>0.04266163107030919</v>
       </c>
       <c r="D53">
-        <v>-0.003488107716327488</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.02745397911203938</v>
+      </c>
+      <c r="E53">
+        <v>-0.0367623195271452</v>
+      </c>
+      <c r="F53">
+        <v>0.0005388905987098658</v>
+      </c>
+      <c r="G53">
+        <v>0.01417145494584933</v>
+      </c>
+      <c r="H53">
+        <v>0.1951721653890036</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05729126403196716</v>
+        <v>-0.05817038069714876</v>
       </c>
       <c r="C54">
-        <v>-0.01981256855812652</v>
+        <v>0.01060673408190962</v>
       </c>
       <c r="D54">
-        <v>-0.01612042049892017</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01427223488508967</v>
+      </c>
+      <c r="E54">
+        <v>0.0502495175443853</v>
+      </c>
+      <c r="F54">
+        <v>-0.01825326779008464</v>
+      </c>
+      <c r="G54">
+        <v>0.04585984740233194</v>
+      </c>
+      <c r="H54">
+        <v>0.04228634229617147</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1019584827438665</v>
+        <v>-0.1038638785317332</v>
       </c>
       <c r="C55">
-        <v>-0.0483870237113571</v>
+        <v>0.02922909203873451</v>
       </c>
       <c r="D55">
-        <v>-0.02514088121082972</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.03111277749377913</v>
+      </c>
+      <c r="E55">
+        <v>2.686059515932407e-06</v>
+      </c>
+      <c r="F55">
+        <v>-0.01222285988370452</v>
+      </c>
+      <c r="G55">
+        <v>0.01916694057964283</v>
+      </c>
+      <c r="H55">
+        <v>0.1573621704154002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1530928276003677</v>
+        <v>-0.1589436479980179</v>
       </c>
       <c r="C56">
-        <v>-0.07960302386756228</v>
+        <v>0.04982556795605118</v>
       </c>
       <c r="D56">
-        <v>-0.009356939897996006</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04053856962847743</v>
+      </c>
+      <c r="E56">
+        <v>-0.02149613407495026</v>
+      </c>
+      <c r="F56">
+        <v>-0.02057132386152883</v>
+      </c>
+      <c r="G56">
+        <v>0.01224663265556824</v>
+      </c>
+      <c r="H56">
+        <v>0.1969635818014299</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1315727962430313</v>
+        <v>-0.09942378798626587</v>
       </c>
       <c r="C58">
-        <v>0.006298201797941324</v>
+        <v>-0.04983900980523887</v>
       </c>
       <c r="D58">
-        <v>-0.02159904042659799</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.03262400974145808</v>
+      </c>
+      <c r="E58">
+        <v>0.1425079930872384</v>
+      </c>
+      <c r="F58">
+        <v>-0.008585095788761512</v>
+      </c>
+      <c r="G58">
+        <v>-0.09018631432923548</v>
+      </c>
+      <c r="H58">
+        <v>-0.141979924203438</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1271806550519661</v>
+        <v>-0.1481725098501436</v>
       </c>
       <c r="C59">
-        <v>-0.07957027524016423</v>
+        <v>0.1198724897322028</v>
       </c>
       <c r="D59">
-        <v>0.3830054913738963</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3513054517041428</v>
+      </c>
+      <c r="E59">
+        <v>0.03271855918388115</v>
+      </c>
+      <c r="F59">
+        <v>-0.005824475536604258</v>
+      </c>
+      <c r="G59">
+        <v>-0.01163480592459963</v>
+      </c>
+      <c r="H59">
+        <v>0.01378554375847347</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2109905677779229</v>
+        <v>-0.238759705423849</v>
       </c>
       <c r="C60">
-        <v>-0.08768570581279007</v>
+        <v>0.05550374726448599</v>
       </c>
       <c r="D60">
-        <v>-0.01792488189776659</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04863541454142671</v>
+      </c>
+      <c r="E60">
+        <v>-0.1136038844473686</v>
+      </c>
+      <c r="F60">
+        <v>-0.04324191159760309</v>
+      </c>
+      <c r="G60">
+        <v>-0.01895888265878473</v>
+      </c>
+      <c r="H60">
+        <v>-0.157404748526275</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.08254573482410926</v>
+        <v>-0.08781392007623036</v>
       </c>
       <c r="C61">
-        <v>-0.04468951559543642</v>
+        <v>0.02762277611129014</v>
       </c>
       <c r="D61">
-        <v>-0.03505591205761767</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04364989826958848</v>
+      </c>
+      <c r="E61">
+        <v>0.002799237550491482</v>
+      </c>
+      <c r="F61">
+        <v>-0.005320583212752744</v>
+      </c>
+      <c r="G61">
+        <v>0.02005765413770015</v>
+      </c>
+      <c r="H61">
+        <v>0.06642623853081474</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.132330104437539</v>
+        <v>-0.1352079721784921</v>
       </c>
       <c r="C62">
-        <v>-0.0554830207885682</v>
+        <v>0.02649291932498173</v>
       </c>
       <c r="D62">
-        <v>-0.01702138187848836</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.04779695763983973</v>
+      </c>
+      <c r="E62">
+        <v>-0.06302394834354764</v>
+      </c>
+      <c r="F62">
+        <v>0.008666696173906177</v>
+      </c>
+      <c r="G62">
+        <v>0.06503017508233844</v>
+      </c>
+      <c r="H62">
+        <v>0.2029404097088753</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05242836376713472</v>
+        <v>-0.05213767444958844</v>
       </c>
       <c r="C63">
-        <v>-0.02203584703685356</v>
+        <v>0.01250071564661265</v>
       </c>
       <c r="D63">
-        <v>-0.02919080577631347</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02154397865485337</v>
+      </c>
+      <c r="E63">
+        <v>0.04419516674928182</v>
+      </c>
+      <c r="F63">
+        <v>-0.002616821533745052</v>
+      </c>
+      <c r="G63">
+        <v>0.02696645864412378</v>
+      </c>
+      <c r="H63">
+        <v>0.03642796677846018</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1057242505610594</v>
+        <v>-0.10906151542791</v>
       </c>
       <c r="C64">
-        <v>-0.02765467660207621</v>
+        <v>0.01125368485407172</v>
       </c>
       <c r="D64">
-        <v>-0.03289950221355433</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.03007452569320698</v>
+      </c>
+      <c r="E64">
+        <v>0.03302770197499221</v>
+      </c>
+      <c r="F64">
+        <v>-0.04482025303334488</v>
+      </c>
+      <c r="G64">
+        <v>0.0582324033866775</v>
+      </c>
+      <c r="H64">
+        <v>0.02503956806054357</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1304704673376213</v>
+        <v>-0.1301413985209695</v>
       </c>
       <c r="C65">
-        <v>-0.05551542419786711</v>
+        <v>0.03684089646460031</v>
       </c>
       <c r="D65">
-        <v>-0.007459691848442116</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01421300779320792</v>
+      </c>
+      <c r="E65">
+        <v>-0.01431649628152249</v>
+      </c>
+      <c r="F65">
+        <v>-0.05495923897584721</v>
+      </c>
+      <c r="G65">
+        <v>0.06491932017254042</v>
+      </c>
+      <c r="H65">
+        <v>-0.1368523362291561</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1490724673454354</v>
+        <v>-0.1517673843387095</v>
       </c>
       <c r="C66">
-        <v>-0.06424804003344571</v>
+        <v>0.02941211400725697</v>
       </c>
       <c r="D66">
-        <v>-0.1005287035456657</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1027723172797056</v>
+      </c>
+      <c r="E66">
+        <v>-0.02502051599669388</v>
+      </c>
+      <c r="F66">
+        <v>-0.001312340699062099</v>
+      </c>
+      <c r="G66">
+        <v>0.0617440947840649</v>
+      </c>
+      <c r="H66">
+        <v>0.09711774942660813</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07528506843742794</v>
+        <v>-0.08495178520682792</v>
       </c>
       <c r="C67">
-        <v>-0.007768069938965493</v>
+        <v>-0.002961423313266378</v>
       </c>
       <c r="D67">
-        <v>-0.02469522173204594</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.0327982281340936</v>
+      </c>
+      <c r="E67">
+        <v>0.02186931067616651</v>
+      </c>
+      <c r="F67">
+        <v>-0.01619433932907111</v>
+      </c>
+      <c r="G67">
+        <v>-0.010962645700551</v>
+      </c>
+      <c r="H67">
+        <v>0.02179776062076096</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06113882697369964</v>
+        <v>-0.06588595262586905</v>
       </c>
       <c r="C68">
-        <v>-0.05236010409850329</v>
+        <v>0.08676485283427218</v>
       </c>
       <c r="D68">
-        <v>0.2564205789181135</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2622002757751572</v>
+      </c>
+      <c r="E68">
+        <v>0.04251766900912859</v>
+      </c>
+      <c r="F68">
+        <v>-0.01708465689085039</v>
+      </c>
+      <c r="G68">
+        <v>-0.005938842680478859</v>
+      </c>
+      <c r="H68">
+        <v>0.01690211917349242</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05279796948460704</v>
+        <v>-0.05229934395497346</v>
       </c>
       <c r="C69">
-        <v>-0.01478858796207931</v>
+        <v>0.002832701194759896</v>
       </c>
       <c r="D69">
-        <v>-0.02736804581077486</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.02050211655128067</v>
+      </c>
+      <c r="E69">
+        <v>0.02490633112232108</v>
+      </c>
+      <c r="F69">
+        <v>0.01283225016825093</v>
+      </c>
+      <c r="G69">
+        <v>-0.002720332993981902</v>
+      </c>
+      <c r="H69">
+        <v>0.05031937621979529</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.002643121806296895</v>
+        <v>-0.0271313878474596</v>
       </c>
       <c r="C70">
-        <v>0.007896764723567967</v>
+        <v>-0.002751843906578697</v>
       </c>
       <c r="D70">
-        <v>0.01234566016052002</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.007602792639211248</v>
+      </c>
+      <c r="E70">
+        <v>-0.01734508569930437</v>
+      </c>
+      <c r="F70">
+        <v>-0.004007103006730435</v>
+      </c>
+      <c r="G70">
+        <v>-0.03091937883291952</v>
+      </c>
+      <c r="H70">
+        <v>-0.0296956634113569</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.05922782598315669</v>
+        <v>-0.07005592597524486</v>
       </c>
       <c r="C71">
-        <v>-0.05194859429721697</v>
+        <v>0.09513881896618825</v>
       </c>
       <c r="D71">
-        <v>0.2918602356497071</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2888863986372465</v>
+      </c>
+      <c r="E71">
+        <v>0.03733946590752997</v>
+      </c>
+      <c r="F71">
+        <v>-0.04725198081965628</v>
+      </c>
+      <c r="G71">
+        <v>-0.001919815276213252</v>
+      </c>
+      <c r="H71">
+        <v>0.01337253358503234</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1431160997907829</v>
+        <v>-0.1446958676103177</v>
       </c>
       <c r="C72">
-        <v>-0.05512439222099095</v>
+        <v>0.02947374723360949</v>
       </c>
       <c r="D72">
-        <v>-0.002883676146328706</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.003468088472240663</v>
+      </c>
+      <c r="E72">
+        <v>-0.05714992596746016</v>
+      </c>
+      <c r="F72">
+        <v>0.161158846205371</v>
+      </c>
+      <c r="G72">
+        <v>0.1161673938705603</v>
+      </c>
+      <c r="H72">
+        <v>-0.01395506252858402</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2867595451371509</v>
+        <v>-0.2869757598297133</v>
       </c>
       <c r="C73">
-        <v>-0.08712225709128799</v>
+        <v>0.02015320974311619</v>
       </c>
       <c r="D73">
-        <v>-0.0429570530058158</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.101041694234566</v>
+      </c>
+      <c r="E73">
+        <v>-0.2397434241810138</v>
+      </c>
+      <c r="F73">
+        <v>-0.04802587064296144</v>
+      </c>
+      <c r="G73">
+        <v>-0.2496808635058032</v>
+      </c>
+      <c r="H73">
+        <v>-0.4084352131756945</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.08423368297399879</v>
+        <v>-0.09206284531798006</v>
       </c>
       <c r="C74">
-        <v>-0.07318281490705963</v>
+        <v>0.0536763359651364</v>
       </c>
       <c r="D74">
-        <v>-0.01174360918412495</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.0404582668536138</v>
+      </c>
+      <c r="E74">
+        <v>-0.01035451195393717</v>
+      </c>
+      <c r="F74">
+        <v>0.003512342695767495</v>
+      </c>
+      <c r="G74">
+        <v>-0.02472958827554589</v>
+      </c>
+      <c r="H74">
+        <v>0.1306337105454679</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1008955132122283</v>
+        <v>-0.1037081847512424</v>
       </c>
       <c r="C75">
-        <v>-0.04605108011604105</v>
+        <v>0.02133472384639128</v>
       </c>
       <c r="D75">
-        <v>-0.01353474763604416</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02561083961917213</v>
+      </c>
+      <c r="E75">
+        <v>-0.002720323848122804</v>
+      </c>
+      <c r="F75">
+        <v>-0.003944133984755877</v>
+      </c>
+      <c r="G75">
+        <v>-0.002549880925651838</v>
+      </c>
+      <c r="H75">
+        <v>0.1009347968879856</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1347338683215274</v>
+        <v>-0.1428051781755207</v>
       </c>
       <c r="C76">
-        <v>-0.075564778170328</v>
+        <v>0.04910192673054895</v>
       </c>
       <c r="D76">
-        <v>-0.03231423832336593</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05397721083508287</v>
+      </c>
+      <c r="E76">
+        <v>0.00748238052830824</v>
+      </c>
+      <c r="F76">
+        <v>-0.03526023842737493</v>
+      </c>
+      <c r="G76">
+        <v>0.01874987624639778</v>
+      </c>
+      <c r="H76">
+        <v>0.2166383666049284</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1179837074885257</v>
+        <v>-0.1033531703654811</v>
       </c>
       <c r="C77">
-        <v>-0.007702999786150569</v>
+        <v>-0.02289222068785653</v>
       </c>
       <c r="D77">
-        <v>-0.08668372889373434</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.03905121512094359</v>
+      </c>
+      <c r="E77">
+        <v>0.03757694636586124</v>
+      </c>
+      <c r="F77">
+        <v>-0.1090347718170511</v>
+      </c>
+      <c r="G77">
+        <v>0.8284519288341941</v>
+      </c>
+      <c r="H77">
+        <v>-0.3176632395051632</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1073446670614977</v>
+        <v>-0.1517651142165885</v>
       </c>
       <c r="C78">
-        <v>-0.03386049067635791</v>
+        <v>0.02901439104626045</v>
       </c>
       <c r="D78">
-        <v>-0.09112568423497608</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.0793197300131884</v>
+      </c>
+      <c r="E78">
+        <v>0.04974027432965654</v>
+      </c>
+      <c r="F78">
+        <v>-0.06534919362296858</v>
+      </c>
+      <c r="G78">
+        <v>0.05376185821901657</v>
+      </c>
+      <c r="H78">
+        <v>-0.07377914150343362</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1501137968804873</v>
+        <v>-0.1486802122590569</v>
       </c>
       <c r="C79">
-        <v>-0.06433305725578477</v>
+        <v>0.03079127617911287</v>
       </c>
       <c r="D79">
-        <v>-0.02197963823265478</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.03990168550267319</v>
+      </c>
+      <c r="E79">
+        <v>-0.02170331013150641</v>
+      </c>
+      <c r="F79">
+        <v>-0.01753603409954102</v>
+      </c>
+      <c r="G79">
+        <v>0.01316321781930055</v>
+      </c>
+      <c r="H79">
+        <v>0.1612772659832002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04084356375584704</v>
+        <v>-0.04160848428812398</v>
       </c>
       <c r="C80">
-        <v>-0.01859790441333114</v>
+        <v>0.01122068496725831</v>
       </c>
       <c r="D80">
-        <v>-0.03215307535119378</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01710320053932863</v>
+      </c>
+      <c r="E80">
+        <v>-0.02919160142979073</v>
+      </c>
+      <c r="F80">
+        <v>-0.002147791081018632</v>
+      </c>
+      <c r="G80">
+        <v>-0.02411811712783619</v>
+      </c>
+      <c r="H80">
+        <v>0.03980701422129185</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.121612467693379</v>
+        <v>-0.1236761787353695</v>
       </c>
       <c r="C81">
-        <v>-0.05392276654470184</v>
+        <v>0.02946628551062101</v>
       </c>
       <c r="D81">
-        <v>-0.03319310346820745</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.03149899915514601</v>
+      </c>
+      <c r="E81">
+        <v>0.008764705767138116</v>
+      </c>
+      <c r="F81">
+        <v>-0.006652482562488631</v>
+      </c>
+      <c r="G81">
+        <v>-0.02456612066896916</v>
+      </c>
+      <c r="H81">
+        <v>0.1449352021107179</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1338141909227389</v>
+        <v>-0.1313259502118686</v>
       </c>
       <c r="C82">
-        <v>-0.06841943871061625</v>
+        <v>0.04112092673204853</v>
       </c>
       <c r="D82">
-        <v>-0.01059094170901766</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.03847557660786253</v>
+      </c>
+      <c r="E82">
+        <v>-0.02359468060613374</v>
+      </c>
+      <c r="F82">
+        <v>-0.04254318653824975</v>
+      </c>
+      <c r="G82">
+        <v>-0.007673812809717349</v>
+      </c>
+      <c r="H82">
+        <v>0.22234996362934</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.06929619184087371</v>
+        <v>-0.0826804407209257</v>
       </c>
       <c r="C83">
-        <v>0.02974214327295163</v>
+        <v>-0.04106518368262385</v>
       </c>
       <c r="D83">
-        <v>-0.01359817799354099</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.01967333493543952</v>
+      </c>
+      <c r="E83">
+        <v>0.02048886511085267</v>
+      </c>
+      <c r="F83">
+        <v>-0.04725558776686892</v>
+      </c>
+      <c r="G83">
+        <v>-0.06843702467671267</v>
+      </c>
+      <c r="H83">
+        <v>-0.02636326886241804</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02905669189879318</v>
+        <v>-0.03642151387573355</v>
       </c>
       <c r="C84">
-        <v>-0.0290233098297478</v>
+        <v>0.02083783119881542</v>
       </c>
       <c r="D84">
-        <v>-0.03568265531646542</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03558761036122834</v>
+      </c>
+      <c r="E84">
+        <v>0.02584891327954668</v>
+      </c>
+      <c r="F84">
+        <v>0.04050433876416116</v>
+      </c>
+      <c r="G84">
+        <v>-0.05030697618682816</v>
+      </c>
+      <c r="H84">
+        <v>0.03529795299107253</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.117807614792723</v>
+        <v>-0.1209803412835193</v>
       </c>
       <c r="C85">
-        <v>-0.03888863416168074</v>
+        <v>0.01608399790423661</v>
       </c>
       <c r="D85">
-        <v>-0.05254247918094013</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.03935966947825918</v>
+      </c>
+      <c r="E85">
+        <v>0.01133401975879712</v>
+      </c>
+      <c r="F85">
+        <v>-0.03074014338671296</v>
+      </c>
+      <c r="G85">
+        <v>-0.005316054213194762</v>
+      </c>
+      <c r="H85">
+        <v>0.1440050293234764</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05321593848986986</v>
+        <v>-0.05668530702212105</v>
       </c>
       <c r="C86">
-        <v>-0.01993659658843834</v>
+        <v>0.006969274630035853</v>
       </c>
       <c r="D86">
-        <v>-0.0624883229005231</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.03434024104578961</v>
+      </c>
+      <c r="E86">
+        <v>0.04428460284889629</v>
+      </c>
+      <c r="F86">
+        <v>-0.03598714037978477</v>
+      </c>
+      <c r="G86">
+        <v>-0.04222740717134859</v>
+      </c>
+      <c r="H86">
+        <v>-0.03208751418025438</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1216573707552164</v>
+        <v>-0.1244598373839906</v>
       </c>
       <c r="C87">
-        <v>-0.06629661173590519</v>
+        <v>0.0315678406564369</v>
       </c>
       <c r="D87">
-        <v>-0.07393381542487565</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.0713819036654125</v>
+      </c>
+      <c r="E87">
+        <v>0.0204440916468824</v>
+      </c>
+      <c r="F87">
+        <v>-0.02035861393123654</v>
+      </c>
+      <c r="G87">
+        <v>0.127799643409429</v>
+      </c>
+      <c r="H87">
+        <v>-0.071763135180882</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.0540984765084297</v>
+        <v>-0.06231092079646059</v>
       </c>
       <c r="C88">
-        <v>-0.02736477835100148</v>
+        <v>0.01674941030872373</v>
       </c>
       <c r="D88">
-        <v>-0.02687481641723719</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03899712174973467</v>
+      </c>
+      <c r="E88">
+        <v>0.00853539991907535</v>
+      </c>
+      <c r="F88">
+        <v>-0.01701021436834179</v>
+      </c>
+      <c r="G88">
+        <v>0.01661281947183946</v>
+      </c>
+      <c r="H88">
+        <v>0.04100339382516211</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.09101986329796774</v>
+        <v>-0.1082526324483871</v>
       </c>
       <c r="C89">
-        <v>-0.07565103088935697</v>
+        <v>0.1224188243092303</v>
       </c>
       <c r="D89">
-        <v>0.3304218349352543</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.3370793473097455</v>
+      </c>
+      <c r="E89">
+        <v>0.06255052558556966</v>
+      </c>
+      <c r="F89">
+        <v>-0.07402282585631752</v>
+      </c>
+      <c r="G89">
+        <v>-0.02621347284580314</v>
+      </c>
+      <c r="H89">
+        <v>0.02033449730655754</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07454723318243058</v>
+        <v>-0.08650195070250299</v>
       </c>
       <c r="C90">
-        <v>-0.06324476902562422</v>
+        <v>0.1005661938103427</v>
       </c>
       <c r="D90">
-        <v>0.2826790731400737</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2788659329414152</v>
+      </c>
+      <c r="E90">
+        <v>0.05023104575678828</v>
+      </c>
+      <c r="F90">
+        <v>-0.03718333699602773</v>
+      </c>
+      <c r="G90">
+        <v>0.0218471173243618</v>
+      </c>
+      <c r="H90">
+        <v>-0.002630829787159618</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08959916165515627</v>
+        <v>-0.09114070609374147</v>
       </c>
       <c r="C91">
-        <v>-0.04812319486249085</v>
+        <v>0.02567684185969542</v>
       </c>
       <c r="D91">
-        <v>-0.02158415955556015</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03380619669616169</v>
+      </c>
+      <c r="E91">
+        <v>0.007033836808146039</v>
+      </c>
+      <c r="F91">
+        <v>6.835390303379687e-05</v>
+      </c>
+      <c r="G91">
+        <v>-0.02251652514126522</v>
+      </c>
+      <c r="H91">
+        <v>0.08685007176101643</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07943686328145402</v>
+        <v>-0.09003801286096356</v>
       </c>
       <c r="C92">
-        <v>-0.07834872734197364</v>
+        <v>0.122896501618047</v>
       </c>
       <c r="D92">
-        <v>0.3418641073713886</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.3324149183195932</v>
+      </c>
+      <c r="E92">
+        <v>0.04249220038202884</v>
+      </c>
+      <c r="F92">
+        <v>-0.04091259034429293</v>
+      </c>
+      <c r="G92">
+        <v>0.01348828733223067</v>
+      </c>
+      <c r="H92">
+        <v>0.01751150183096291</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.0678301815152936</v>
+        <v>-0.08316998697498698</v>
       </c>
       <c r="C93">
-        <v>-0.06702805901512221</v>
+        <v>0.1111732184703235</v>
       </c>
       <c r="D93">
-        <v>0.299826231743509</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2938361035162896</v>
+      </c>
+      <c r="E93">
+        <v>0.02417324288312406</v>
+      </c>
+      <c r="F93">
+        <v>-0.03414573916102279</v>
+      </c>
+      <c r="G93">
+        <v>0.01503772392611732</v>
+      </c>
+      <c r="H93">
+        <v>0.001142185272728435</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1354832863010086</v>
+        <v>-0.1298857020054942</v>
       </c>
       <c r="C94">
-        <v>-0.04172426572251998</v>
+        <v>0.008832118635498395</v>
       </c>
       <c r="D94">
-        <v>-0.04198443200978893</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04954537756792573</v>
+      </c>
+      <c r="E94">
+        <v>-0.01697902303364478</v>
+      </c>
+      <c r="F94">
+        <v>-0.01273420490210658</v>
+      </c>
+      <c r="G94">
+        <v>-0.04556288901641378</v>
+      </c>
+      <c r="H94">
+        <v>0.110428935600147</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1216587950016509</v>
+        <v>-0.1293920941385008</v>
       </c>
       <c r="C95">
-        <v>-0.01757674125100244</v>
+        <v>-0.007939643718419011</v>
       </c>
       <c r="D95">
-        <v>-0.05431556501119014</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.06050507733922017</v>
+      </c>
+      <c r="E95">
+        <v>0.005994248105056199</v>
+      </c>
+      <c r="F95">
+        <v>-0.05720236027428005</v>
+      </c>
+      <c r="G95">
+        <v>0.02161267745910162</v>
+      </c>
+      <c r="H95">
+        <v>-0.07155298469691017</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2184401586859828</v>
+        <v>-0.1978929100349248</v>
       </c>
       <c r="C97">
-        <v>-0.03789035193291711</v>
+        <v>-0.003828052467828894</v>
       </c>
       <c r="D97">
-        <v>0.0825542664747297</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.07100449907272514</v>
+      </c>
+      <c r="E97">
+        <v>-0.05701955892413935</v>
+      </c>
+      <c r="F97">
+        <v>0.9283681906666579</v>
+      </c>
+      <c r="G97">
+        <v>0.09245064088321603</v>
+      </c>
+      <c r="H97">
+        <v>-0.01450238084305021</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2461436653550289</v>
+        <v>-0.2734442870239056</v>
       </c>
       <c r="C98">
-        <v>-0.05054593006510906</v>
+        <v>0.01121017581790093</v>
       </c>
       <c r="D98">
-        <v>-0.01923100204711304</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.04817321931349446</v>
+      </c>
+      <c r="E98">
+        <v>-0.1890964816801831</v>
+      </c>
+      <c r="F98">
+        <v>-0.03782282644499669</v>
+      </c>
+      <c r="G98">
+        <v>-0.2941156350117103</v>
+      </c>
+      <c r="H98">
+        <v>-0.2186676769821437</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.3867519619055234</v>
+        <v>-0.2547643325486743</v>
       </c>
       <c r="C99">
-        <v>0.90267738614689</v>
+        <v>-0.9200456619895603</v>
       </c>
       <c r="D99">
-        <v>0.06983889899277285</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.2309901743339367</v>
+      </c>
+      <c r="E99">
+        <v>0.06673729358101903</v>
+      </c>
+      <c r="F99">
+        <v>-0.06853428159384153</v>
+      </c>
+      <c r="G99">
+        <v>-0.002813268911651232</v>
+      </c>
+      <c r="H99">
+        <v>0.07635281367718835</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04473746253515683</v>
+        <v>-0.04689879772970642</v>
       </c>
       <c r="C101">
-        <v>-0.02843241510697439</v>
+        <v>0.02147887882970647</v>
       </c>
       <c r="D101">
-        <v>-0.009456586738544532</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01399482996732461</v>
+      </c>
+      <c r="E101">
+        <v>0.05870507253664081</v>
+      </c>
+      <c r="F101">
+        <v>-0.02046198148725685</v>
+      </c>
+      <c r="G101">
+        <v>0.01417618720811493</v>
+      </c>
+      <c r="H101">
+        <v>0.07617298580386249</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
